--- a/数据库设计表.xlsx
+++ b/数据库设计表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="658"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="658" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户管理模块" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="128">
-  <si>
-    <t>用户管理模块（us）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="137">
+  <si>
+    <t>用户管理模块（sy）</t>
   </si>
   <si>
     <t>用户表</t>
@@ -132,6 +132,9 @@
     <t>角色权限表</t>
   </si>
   <si>
+    <t>角色路由表</t>
+  </si>
+  <si>
     <t>authority_name</t>
   </si>
   <si>
@@ -144,6 +147,9 @@
     <t>authority_id</t>
   </si>
   <si>
+    <t>route_id</t>
+  </si>
+  <si>
     <t>varchar(100)</t>
   </si>
   <si>
@@ -156,6 +162,12 @@
     <t>权限描述</t>
   </si>
   <si>
+    <t>权限ID</t>
+  </si>
+  <si>
+    <t>路由ID</t>
+  </si>
+  <si>
     <t>路由表</t>
   </si>
   <si>
@@ -282,6 +294,9 @@
     <t>case_condition</t>
   </si>
   <si>
+    <t>itme_id</t>
+  </si>
+  <si>
     <t>itme_name</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>前置条件</t>
   </si>
   <si>
+    <t>测试项ID</t>
+  </si>
+  <si>
     <t>测试项名称</t>
   </si>
   <si>
@@ -387,19 +405,28 @@
     <t>datetime</t>
   </si>
   <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>create_by</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>update_by</t>
+  </si>
+  <si>
     <t>delete_flag</t>
   </si>
   <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>create_by</t>
-  </si>
-  <si>
-    <t>update_time</t>
-  </si>
-  <si>
-    <t>update_by</t>
+    <t>InnoDB</t>
+  </si>
+  <si>
+    <t>utf8mb4_general_ci</t>
+  </si>
+  <si>
+    <t>row_format=DYNAMIC</t>
   </si>
   <si>
     <t>测试用例管理表</t>
@@ -415,13 +442,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Inter"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -952,137 +985,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1095,12 +1128,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1115,9 +1157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1430,10 +1469,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1446,28 +1485,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
@@ -1548,17 +1587,16 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8"/>
-      <c r="F8" s="6" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="F8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
@@ -1570,7 +1608,6 @@
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9"/>
       <c r="F9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1628,6 @@
       <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10"/>
       <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1612,7 +1648,6 @@
       <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11"/>
       <c r="F11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1623,31 +1658,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="F14" s="6" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="J14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>2</v>
@@ -1656,10 +1696,19 @@
         <v>29</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1670,7 +1719,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
@@ -1681,66 +1730,84 @@
       <c r="H16" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="L17" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="A20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1754,19 +1821,19 @@
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1774,54 +1841,54 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="F26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="A26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>2</v>
@@ -1830,13 +1897,13 @@
         <v>28</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1847,10 +1914,10 @@
         <v>30</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>10</v>
@@ -1859,27 +1926,27 @@
         <v>10</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>71</v>
+      <c r="B29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>2</v>
@@ -1888,23 +1955,24 @@
         <v>33</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="F26:J26"/>
@@ -1918,10 +1986,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1930,34 +1998,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="4" spans="4:6">
-      <c r="D4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="4:6">
@@ -1968,7 +2036,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="4:6">
@@ -1976,53 +2044,57 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -2030,88 +2102,94 @@
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>81</v>
+        <v>99</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2122,10 +2200,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
@@ -2134,10 +2212,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2145,40 +2223,39 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22"/>
-      <c r="F22" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
+      <c r="A22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
@@ -2188,20 +2265,19 @@
         <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23"/>
+        <v>116</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2215,9 +2291,8 @@
         <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24"/>
+        <v>73</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>10</v>
       </c>
@@ -2236,32 +2311,31 @@
         <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25"/>
+        <v>119</v>
+      </c>
       <c r="F25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="A22:D22"/>
@@ -2277,20 +2351,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="11" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2299,53 +2373,64 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2456,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2402,7 +2487,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2433,7 +2518,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/数据库设计表.xlsx
+++ b/数据库设计表.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="用户管理模块" sheetId="1" r:id="rId1"/>
     <sheet name="测试管理" sheetId="2" r:id="rId2"/>
-    <sheet name="公共属性" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="功能保存" sheetId="4" r:id="rId3"/>
+    <sheet name="公共属性" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="162">
   <si>
     <t>用户管理模块（sy）</t>
   </si>
@@ -267,24 +267,39 @@
     <t>测试模块表</t>
   </si>
   <si>
+    <t>测试项表</t>
+  </si>
+  <si>
     <t>module_name</t>
   </si>
   <si>
     <t>module_refer</t>
   </si>
   <si>
+    <t>module_id</t>
+  </si>
+  <si>
+    <t>itme_name</t>
+  </si>
+  <si>
+    <t>itme_refer</t>
+  </si>
+  <si>
     <t>模块名称</t>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
+    <t>模块ID</t>
+  </si>
+  <si>
+    <t>测试项名称</t>
+  </si>
+  <si>
     <t>测试用例表</t>
   </si>
   <si>
-    <t>测试项表</t>
-  </si>
-  <si>
     <t>case_name</t>
   </si>
   <si>
@@ -297,10 +312,7 @@
     <t>itme_id</t>
   </si>
   <si>
-    <t>itme_name</t>
-  </si>
-  <si>
-    <t>itme_refer</t>
+    <t>case_url</t>
   </si>
   <si>
     <t>用例名称</t>
@@ -318,7 +330,7 @@
     <t>测试项ID</t>
   </si>
   <si>
-    <t>测试项名称</t>
+    <t>测试用例URL</t>
   </si>
   <si>
     <t>步骤表</t>
@@ -382,6 +394,69 @@
   </si>
   <si>
     <t>测试任务ID</t>
+  </si>
+  <si>
+    <t>工具表toolset</t>
+  </si>
+  <si>
+    <t>GitBub项目表</t>
+  </si>
+  <si>
+    <t>adb功能表</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>git_name</t>
+  </si>
+  <si>
+    <t>git_url</t>
+  </si>
+  <si>
+    <t>git_refer</t>
+  </si>
+  <si>
+    <t>adb_name</t>
+  </si>
+  <si>
+    <t>adb_dir</t>
+  </si>
+  <si>
+    <t>adb_refer</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+  </si>
+  <si>
+    <t>git项目名称</t>
+  </si>
+  <si>
+    <t>git项目URL</t>
+  </si>
+  <si>
+    <t>adb名称</t>
+  </si>
+  <si>
+    <t>adb命令</t>
+  </si>
+  <si>
+    <t>PythonFlask接口</t>
+  </si>
+  <si>
+    <t>flask_name</t>
+  </si>
+  <si>
+    <t>falsk_url</t>
+  </si>
+  <si>
+    <t>falsk_refer</t>
+  </si>
+  <si>
+    <t>flask接口名称</t>
+  </si>
+  <si>
+    <t>flask接口URL</t>
   </si>
   <si>
     <t>公共字段</t>
@@ -601,7 +676,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +686,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,7 +1072,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,16 +1096,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1033,85 +1114,85 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,25 +1212,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1485,28 +1566,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
@@ -1659,12 +1740,12 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="F14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1773,16 +1854,16 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
@@ -1863,19 +1944,19 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="F26" s="6" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="F26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
@@ -1986,10 +2067,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1998,103 +2079,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="4" spans="4:6">
-      <c r="D4" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="4:6">
-      <c r="D5" s="3" t="s">
-        <v>2</v>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6">
-      <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
-      <c r="D7" s="3" t="s">
-        <v>2</v>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="H10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10">
+        <v>90</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -2110,86 +2223,74 @@
       <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>85</v>
+        <v>101</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="A16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2200,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>73</v>
@@ -2212,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>73</v>
@@ -2223,36 +2324,36 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
       <c r="F22" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
@@ -2265,19 +2366,19 @@
         <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2311,19 +2412,19 @@
         <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2333,9 +2434,9 @@
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="A22:D22"/>
@@ -2351,10 +2452,189 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="9" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -2364,7 +2644,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2373,30 +2653,30 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -2407,30 +2687,30 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2439,37 +2719,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2487,7 +2736,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2518,7 +2767,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
